--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N2">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O2">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P2">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q2">
-        <v>89.25223777135112</v>
+        <v>138.7021941114862</v>
       </c>
       <c r="R2">
-        <v>803.2701399421602</v>
+        <v>1248.319747003376</v>
       </c>
       <c r="S2">
-        <v>0.2594740270198423</v>
+        <v>0.277300211052919</v>
       </c>
       <c r="T2">
-        <v>0.2594740270198423</v>
+        <v>0.2773002110529191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q3">
-        <v>104.1176019592195</v>
+        <v>103.7128006453289</v>
       </c>
       <c r="R3">
-        <v>937.0584176329752</v>
+        <v>933.41520580796</v>
       </c>
       <c r="S3">
-        <v>0.3026906006907923</v>
+        <v>0.2073477041374169</v>
       </c>
       <c r="T3">
-        <v>0.3026906006907923</v>
+        <v>0.207347704137417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N4">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q4">
-        <v>65.93505555272779</v>
+        <v>153.1243873042009</v>
       </c>
       <c r="R4">
-        <v>593.4154999745501</v>
+        <v>1378.119485737808</v>
       </c>
       <c r="S4">
-        <v>0.1916863354157255</v>
+        <v>0.3061337651419856</v>
       </c>
       <c r="T4">
-        <v>0.1916863354157255</v>
+        <v>0.3061337651419856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H5">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N5">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O5">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P5">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q5">
-        <v>43.78798663724223</v>
+        <v>37.27696626337867</v>
       </c>
       <c r="R5">
-        <v>394.0918797351802</v>
+        <v>335.492696370408</v>
       </c>
       <c r="S5">
-        <v>0.1273003961756497</v>
+        <v>0.07452593434779287</v>
       </c>
       <c r="T5">
-        <v>0.1273003961756497</v>
+        <v>0.07452593434779289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N6">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O6">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P6">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q6">
-        <v>9.257898220650667</v>
+        <v>14.44336592085067</v>
       </c>
       <c r="R6">
-        <v>83.32108398585601</v>
+        <v>129.990293287656</v>
       </c>
       <c r="S6">
-        <v>0.02691455355109463</v>
+        <v>0.02887588364281508</v>
       </c>
       <c r="T6">
-        <v>0.02691455355109464</v>
+        <v>0.02887588364281509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q7">
         <v>10.79984307380667</v>
@@ -883,10 +883,10 @@
         <v>97.19858766426</v>
       </c>
       <c r="S7">
-        <v>0.03139729426977421</v>
+        <v>0.02159157454494073</v>
       </c>
       <c r="T7">
-        <v>0.03139729426977421</v>
+        <v>0.02159157454494074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N8">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q8">
-        <v>6.839268669586667</v>
+        <v>15.94518076233867</v>
       </c>
       <c r="R8">
-        <v>61.55341802628001</v>
+        <v>143.506626861048</v>
       </c>
       <c r="S8">
-        <v>0.01988311585099461</v>
+        <v>0.031878385334838</v>
       </c>
       <c r="T8">
-        <v>0.01988311585099461</v>
+        <v>0.03187838533483801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N9">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O9">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P9">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q9">
-        <v>4.542011872165334</v>
+        <v>3.881732856572</v>
       </c>
       <c r="R9">
-        <v>40.87810684948801</v>
+        <v>34.935595709148</v>
       </c>
       <c r="S9">
-        <v>0.01320453291335814</v>
+        <v>0.007760550200909376</v>
       </c>
       <c r="T9">
-        <v>0.01320453291335814</v>
+        <v>0.007760550200909378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H10">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N10">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O10">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P10">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q10">
-        <v>2.674059286384</v>
+        <v>6.713531671399334</v>
       </c>
       <c r="R10">
-        <v>24.066533577456</v>
+        <v>60.421785042594</v>
       </c>
       <c r="S10">
-        <v>0.007774022801595001</v>
+        <v>0.01342202090828585</v>
       </c>
       <c r="T10">
-        <v>0.007774022801595002</v>
+        <v>0.01342202090828585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H11">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q11">
-        <v>3.119435964265</v>
+        <v>5.019957876818333</v>
       </c>
       <c r="R11">
-        <v>28.074923678385</v>
+        <v>45.179620891365</v>
       </c>
       <c r="S11">
-        <v>0.009068821487164728</v>
+        <v>0.01003614533739528</v>
       </c>
       <c r="T11">
-        <v>0.009068821487164728</v>
+        <v>0.01003614533739528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H12">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N12">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q12">
-        <v>1.97546024617</v>
+        <v>7.411601744411333</v>
       </c>
       <c r="R12">
-        <v>17.77914221553</v>
+        <v>66.704415699702</v>
       </c>
       <c r="S12">
-        <v>0.00574305628733346</v>
+        <v>0.01481763674418505</v>
       </c>
       <c r="T12">
-        <v>0.00574305628733346</v>
+        <v>0.01481763674418505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H13">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N13">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O13">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P13">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q13">
-        <v>1.311918616532</v>
+        <v>1.804298015803</v>
       </c>
       <c r="R13">
-        <v>11.807267548788</v>
+        <v>16.238682142227</v>
       </c>
       <c r="S13">
-        <v>0.003814008646213746</v>
+        <v>0.003607240850006866</v>
       </c>
       <c r="T13">
-        <v>0.003814008646213747</v>
+        <v>0.003607240850006866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H14">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N14">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O14">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P14">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q14">
-        <v>0.1062774981084444</v>
+        <v>0.4332618574437778</v>
       </c>
       <c r="R14">
-        <v>0.956497482976</v>
+        <v>3.899356716994</v>
       </c>
       <c r="S14">
-        <v>0.0003089698488730037</v>
+        <v>0.000866198298303559</v>
       </c>
       <c r="T14">
-        <v>0.0003089698488730038</v>
+        <v>0.0008661982983035591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H15">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.110785</v>
       </c>
       <c r="O15">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P15">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q15">
-        <v>0.1239784964677778</v>
+        <v>0.3239660405961111</v>
       </c>
       <c r="R15">
-        <v>1.11580646821</v>
+        <v>2.915694365365</v>
       </c>
       <c r="S15">
-        <v>0.0003604301757091127</v>
+        <v>0.0006476887550825026</v>
       </c>
       <c r="T15">
-        <v>0.0003604301757091127</v>
+        <v>0.0006476887550825028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H16">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N16">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O16">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P16">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q16">
-        <v>0.07851245993111111</v>
+        <v>0.4783122349891111</v>
       </c>
       <c r="R16">
-        <v>0.70661213938</v>
+        <v>4.304810114902</v>
       </c>
       <c r="S16">
-        <v>0.0002282513543441771</v>
+        <v>0.000956265216720822</v>
       </c>
       <c r="T16">
-        <v>0.0002282513543441771</v>
+        <v>0.0009562652167208224</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H17">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N17">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O17">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P17">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q17">
-        <v>0.05214073936088889</v>
+        <v>0.1164414719363333</v>
       </c>
       <c r="R17">
-        <v>0.4692666542480001</v>
+        <v>1.047973247427</v>
       </c>
       <c r="S17">
-        <v>0.0001515835115352652</v>
+        <v>0.0002327954864023585</v>
       </c>
       <c r="T17">
-        <v>0.0001515835115352653</v>
+        <v>0.0002327954864023585</v>
       </c>
     </row>
   </sheetData>
